--- a/Risk2SQL/data/SourceData.xlsx
+++ b/Risk2SQL/data/SourceData.xlsx
@@ -1560,11 +1560,11 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
